--- a/nodejs/app4/doc/設計.xlsx
+++ b/nodejs/app4/doc/設計.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sikak\Google ドライブ\02_プライベート\03_ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sikak\Desktop\sikakou\project\web\nodejs\app4\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6BB8ED-12DC-43E9-BD95-C91788544504}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95AF66A-CFC2-426E-A068-018355A923C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{A542984A-2467-45E1-964A-F41FA6CB0CB1}"/>
+    <workbookView xWindow="-4650" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{A542984A-2467-45E1-964A-F41FA6CB0CB1}"/>
   </bookViews>
   <sheets>
     <sheet name="画面レイアウト" sheetId="4" r:id="rId1"/>
-    <sheet name="top" sheetId="1" r:id="rId2"/>
-    <sheet name="timeline" sheetId="2" r:id="rId3"/>
-    <sheet name="play" sheetId="3" r:id="rId4"/>
-    <sheet name="ユースケース" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="トップ画面" sheetId="1" r:id="rId2"/>
+    <sheet name="タイムライン画面" sheetId="2" r:id="rId3"/>
+    <sheet name="対戦中画面" sheetId="3" r:id="rId4"/>
+    <sheet name="対戦結果集計画面" sheetId="7" r:id="rId5"/>
+    <sheet name="対戦結果画面" sheetId="8" r:id="rId6"/>
+    <sheet name="ゲーム進行" sheetId="6" r:id="rId7"/>
+    <sheet name="ユースケース" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,11 +41,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>論破.net</t>
     <rPh sb="0" eb="2">
       <t>ロンパ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．肯定側立論</t>
+    <rPh sb="2" eb="4">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リツロン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．否定側質疑</t>
+    <rPh sb="2" eb="4">
+      <t>ヒテイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３．否定側立論</t>
+    <rPh sb="2" eb="4">
+      <t>ヒテイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リツロン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４．肯定側質疑</t>
+    <rPh sb="2" eb="4">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～作成タイム～</t>
+    <rPh sb="1" eb="3">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>９．結果発表</t>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>５．否定側反論</t>
+    <rPh sb="2" eb="4">
+      <t>ヒテイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンロン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>６．肯定側反論</t>
+    <rPh sb="2" eb="4">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンロン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>７．否定側最終弁論</t>
+    <rPh sb="2" eb="4">
+      <t>ヒテイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ベンロン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>８．肯定側最終弁論</t>
+    <rPh sb="2" eb="4">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ベンロン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -221,6 +350,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -233,6 +367,637 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368950CD-7EA0-4026-BE2F-B11BCB7DA1BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="209550"/>
+          <a:ext cx="1666875" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>トップ画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082CB069-B7A6-4798-B976-E8CA3B93CCEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2619375" y="209550"/>
+          <a:ext cx="1666875" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>タイムライン画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{245AB9EB-1C67-4BA1-8D93-183F8CF7DCEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5000625" y="209550"/>
+          <a:ext cx="1666875" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>対戦中画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77023AD-17CF-419F-B6AB-8B9B39F3CF57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7381875" y="209550"/>
+          <a:ext cx="1666875" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>対戦結果集計画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEE34737-0881-4B91-939B-5F4A85B2DB06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9763125" y="209550"/>
+          <a:ext cx="1666875" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>対戦結果画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64053585-75B8-436F-B5D4-7FF1B35335CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="628650"/>
+          <a:ext cx="714375" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7230FF1-BF5F-4DC8-B57E-150A86AD7418}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286250" y="628650"/>
+          <a:ext cx="714375" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC68F9-A1E2-48B7-9D69-1CAB9637B756}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667500" y="628650"/>
+          <a:ext cx="714375" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE25972-5E5B-4712-AAAF-3241B8DBFB29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9048750" y="628650"/>
+          <a:ext cx="714375" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -316,7 +1081,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2670,7 +3435,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3783,6 +4548,2455 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6E288AD-99F4-4718-A8E0-302C49030123}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714374" y="2514600"/>
+          <a:ext cx="2140404" cy="2305050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E001B74-6596-4C02-9BE7-5F9F10BA47F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="3352800"/>
+          <a:ext cx="714375" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>VS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26F10A9-74CE-48AE-B0BA-5097A54C4F87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571875" y="2514600"/>
+          <a:ext cx="2143125" cy="2305050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>188945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF185647-0DDA-485D-8F78-253FE481147F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="1027145"/>
+          <a:ext cx="5000625" cy="649255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>会社に出社するべきである</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>235403</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917BD669-A6F2-4B91-BB47-07C0D6D931D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714374" y="2095500"/>
+          <a:ext cx="2140404" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>肯定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>204106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{273A0535-CA5B-48CE-9480-66386641E9E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571875" y="2090056"/>
+          <a:ext cx="2143125" cy="424543"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>否定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{234832A9-4C5B-4A5B-B19D-A85A9692EA37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="5448300"/>
+          <a:ext cx="5000625" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>視聴者</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EF7451E-633D-47BE-BE51-2BFE33AA38B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="5867400"/>
+          <a:ext cx="5000625" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>さん</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>D</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>さん</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>さん</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>F</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>さん</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>G</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>さん</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>H</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>さん</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15161</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6FEABE-A41A-4C49-B9BE-9A6A4306DB07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714374" y="4819650"/>
+          <a:ext cx="2140404" cy="434261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1500">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>さん</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813E0FBD-AEDA-4F7D-9B05-538CC1C8A8E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571875" y="4819650"/>
+          <a:ext cx="2143125" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1500">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>さん</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="グループ化 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA7BCB81-2C05-4C2D-B90B-B3A96F4712F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4163787" y="2653393"/>
+          <a:ext cx="1224642" cy="1836964"/>
+          <a:chOff x="7102929" y="1020536"/>
+          <a:chExt cx="1224642" cy="1836964"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="楕円 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{856EA87B-C478-4263-8A1C-3B74D360DECF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7347857" y="1020536"/>
+            <a:ext cx="734786" cy="816428"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="二等辺三角形 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F868EBC1-C3DE-421B-8E11-E0414F4FDD8E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7102929" y="1836964"/>
+            <a:ext cx="1224642" cy="1020536"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF243093-6C6D-45C9-8DA9-40640EBB9BFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1224644" y="2653393"/>
+          <a:ext cx="1224642" cy="1836964"/>
+          <a:chOff x="7102929" y="1020536"/>
+          <a:chExt cx="1224642" cy="1836964"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="楕円 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{122B5F9D-4C4E-4B81-864D-0C0825971AA7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7347857" y="1020536"/>
+            <a:ext cx="734786" cy="816428"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="二等辺三角形 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB3806D-6152-405E-9552-3AB93FB3885E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7102929" y="1836964"/>
+            <a:ext cx="1224642" cy="1020536"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>244927</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>244927</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE26CD3-AE6C-442C-93B9-BB6DEC5C484D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="489856" y="2653393"/>
+          <a:ext cx="5633357" cy="1836964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="7000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>集計中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BFCF8D7-B655-4162-A275-CA56FFA7F84A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714374" y="2514600"/>
+          <a:ext cx="2140404" cy="2305050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{019EC4AC-A396-4EAD-805C-0FD4B0EAA64C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="3352800"/>
+          <a:ext cx="714375" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>VS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D075D67-ACEC-4EC5-85AF-E81CC5ABA0D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571875" y="2514600"/>
+          <a:ext cx="2143125" cy="2305050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>188945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B7F008-2035-4742-935F-10EE2F146949}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="1027145"/>
+          <a:ext cx="5000625" cy="649255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>会社に出社するべきである</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>235403</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2A5D1F9-DA51-49B3-9A0D-71F141D690C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714374" y="2095500"/>
+          <a:ext cx="2140404" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>肯定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>204106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A23163BD-C07C-4160-AD50-E91DD8035A1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571875" y="2090056"/>
+          <a:ext cx="2143125" cy="424543"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>否定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C095EB-2B47-4820-AA8C-425AB3C8534E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="5448300"/>
+          <a:ext cx="5000625" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>視聴者</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1143EADE-3BBC-42D7-8343-73FAC73EA515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="5867400"/>
+          <a:ext cx="5000625" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>さん</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>D</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>さん</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>さん</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>F</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>さん</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>G</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>さん</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>H</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>さん</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15161</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59D88E6D-9C9F-4DA0-A8BA-D19D708847FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714374" y="4819650"/>
+          <a:ext cx="2140404" cy="434261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1500">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>さん</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87CB12EE-1FAF-49F2-8916-363847FCE2EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571875" y="4819650"/>
+          <a:ext cx="2143125" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1500">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>さん</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="グループ化 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D86503-DDCF-450E-90AD-CC5A150178EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4163787" y="2653393"/>
+          <a:ext cx="1224642" cy="1836964"/>
+          <a:chOff x="7102929" y="1020536"/>
+          <a:chExt cx="1224642" cy="1836964"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="楕円 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90F511ED-5668-42A6-B8A8-122516FA89BE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7347857" y="1020536"/>
+            <a:ext cx="734786" cy="816428"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="二等辺三角形 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC6ECC5B-947D-478C-AC14-0F73EF66ECFE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7102929" y="1836964"/>
+            <a:ext cx="1224642" cy="1020536"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{081B1472-A640-4448-B711-A15B22C5B4A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1224644" y="2653393"/>
+          <a:ext cx="1224642" cy="1836964"/>
+          <a:chOff x="7102929" y="1020536"/>
+          <a:chExt cx="1224642" cy="1836964"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="楕円 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6690C7D-7C33-4255-9AD5-1B9D36BACAA9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7347857" y="1020536"/>
+            <a:ext cx="734786" cy="816428"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="二等辺三角形 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51962235-5CA0-4F59-8DE9-402ED7978FD3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7102929" y="1836964"/>
+            <a:ext cx="1224642" cy="1020536"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D17E9B59-2BCB-4321-9F29-626E755FE828}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="489857" y="2653393"/>
+          <a:ext cx="2694214" cy="1836964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="7000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>WIN</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="7000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E01D82-0CA9-4D5B-A5CD-9F31119CC1CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="2653393"/>
+          <a:ext cx="2694214" cy="1836964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="7000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LOSE</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="7000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4085,12 +7299,13 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6086,7 +9301,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E905497D-6AD1-4351-92EB-7EDA53BC2D16}">
   <dimension ref="B1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R57" sqref="R57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -7104,32 +10321,2127 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B400DBED-1939-4F4C-B9C6-B730AF5533D7}">
+  <dimension ref="B1:Z38"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD52" sqref="AD52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="2:26" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="6"/>
+    </row>
+    <row r="4" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="6"/>
+    </row>
+    <row r="5" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="6"/>
+    </row>
+    <row r="8" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="9" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="6"/>
+    </row>
+    <row r="11" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="6"/>
+    </row>
+    <row r="12" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="6"/>
+    </row>
+    <row r="13" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="6"/>
+    </row>
+    <row r="14" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="6"/>
+    </row>
+    <row r="15" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="6"/>
+    </row>
+    <row r="16" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="6"/>
+    </row>
+    <row r="17" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="6"/>
+    </row>
+    <row r="18" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="6"/>
+    </row>
+    <row r="19" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="6"/>
+    </row>
+    <row r="20" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="6"/>
+    </row>
+    <row r="21" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="6"/>
+    </row>
+    <row r="22" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="6"/>
+    </row>
+    <row r="23" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="6"/>
+    </row>
+    <row r="24" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="6"/>
+    </row>
+    <row r="25" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="6"/>
+    </row>
+    <row r="26" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="6"/>
+    </row>
+    <row r="27" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="6"/>
+    </row>
+    <row r="28" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="6"/>
+    </row>
+    <row r="29" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="6"/>
+    </row>
+    <row r="30" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="6"/>
+    </row>
+    <row r="31" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="6"/>
+    </row>
+    <row r="32" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="6"/>
+    </row>
+    <row r="33" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="6"/>
+    </row>
+    <row r="34" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="6"/>
+    </row>
+    <row r="35" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="6"/>
+    </row>
+    <row r="36" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="6"/>
+    </row>
+    <row r="37" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="6"/>
+    </row>
+    <row r="38" spans="2:26" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J3:Q4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A0C499-1E1F-4CA5-92BF-DBB02E27C5FE}">
+  <dimension ref="B1:Z38"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="2:26" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="6"/>
+    </row>
+    <row r="4" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="6"/>
+    </row>
+    <row r="5" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="6"/>
+    </row>
+    <row r="8" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="9" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="6"/>
+    </row>
+    <row r="11" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="6"/>
+    </row>
+    <row r="12" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="6"/>
+    </row>
+    <row r="13" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="6"/>
+    </row>
+    <row r="14" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="6"/>
+    </row>
+    <row r="15" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="6"/>
+    </row>
+    <row r="16" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="6"/>
+    </row>
+    <row r="17" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="6"/>
+    </row>
+    <row r="18" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="6"/>
+    </row>
+    <row r="19" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="6"/>
+    </row>
+    <row r="20" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="6"/>
+    </row>
+    <row r="21" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="6"/>
+    </row>
+    <row r="22" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="6"/>
+    </row>
+    <row r="23" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="6"/>
+    </row>
+    <row r="24" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="6"/>
+    </row>
+    <row r="25" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="6"/>
+    </row>
+    <row r="26" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="6"/>
+    </row>
+    <row r="27" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="6"/>
+    </row>
+    <row r="28" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="6"/>
+    </row>
+    <row r="29" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="6"/>
+    </row>
+    <row r="30" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="6"/>
+    </row>
+    <row r="31" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="6"/>
+    </row>
+    <row r="32" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="6"/>
+    </row>
+    <row r="33" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="6"/>
+    </row>
+    <row r="34" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="6"/>
+    </row>
+    <row r="35" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="6"/>
+    </row>
+    <row r="36" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="6"/>
+    </row>
+    <row r="37" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="6"/>
+    </row>
+    <row r="38" spans="2:26" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J3:Q4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3CEB50-F7E5-4CCB-B3DD-1354929FB62A}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="B2:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E0F025-CFB5-4706-93E7-E4C001BC82B3}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3CEB50-F7E5-4CCB-B3DD-1354929FB62A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nodejs/app4/doc/設計.xlsx
+++ b/nodejs/app4/doc/設計.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sikak\Desktop\sikakou\project\web\nodejs\app4\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95AF66A-CFC2-426E-A068-018355A923C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C5D037-5A48-4952-9866-8F615230878F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4650" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{A542984A-2467-45E1-964A-F41FA6CB0CB1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{A542984A-2467-45E1-964A-F41FA6CB0CB1}"/>
   </bookViews>
   <sheets>
-    <sheet name="画面レイアウト" sheetId="4" r:id="rId1"/>
-    <sheet name="トップ画面" sheetId="1" r:id="rId2"/>
-    <sheet name="タイムライン画面" sheetId="2" r:id="rId3"/>
-    <sheet name="対戦中画面" sheetId="3" r:id="rId4"/>
-    <sheet name="対戦結果集計画面" sheetId="7" r:id="rId5"/>
-    <sheet name="対戦結果画面" sheetId="8" r:id="rId6"/>
-    <sheet name="ゲーム進行" sheetId="6" r:id="rId7"/>
-    <sheet name="ユースケース" sheetId="5" r:id="rId8"/>
+    <sheet name="仕様" sheetId="11" r:id="rId1"/>
+    <sheet name="ゲーム進行" sheetId="6" r:id="rId2"/>
+    <sheet name="画面レイアウト" sheetId="4" r:id="rId3"/>
+    <sheet name="トップ画面" sheetId="1" r:id="rId4"/>
+    <sheet name="タイムライン画面" sheetId="2" r:id="rId5"/>
+    <sheet name="対戦中画面" sheetId="3" r:id="rId6"/>
+    <sheet name="対戦結果集計画面" sheetId="7" r:id="rId7"/>
+    <sheet name="対戦結果画面" sheetId="8" r:id="rId8"/>
+    <sheet name="シーケンス" sheetId="10" r:id="rId9"/>
+    <sheet name="DB" sheetId="9" r:id="rId10"/>
+    <sheet name="ユースケース" sheetId="5" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>論破.net</t>
     <rPh sb="0" eb="2">
@@ -176,12 +179,471 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>対戦ルームTBL</t>
+    <rPh sb="0" eb="2">
+      <t>タイセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルームID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>否定者ID</t>
+    <rPh sb="0" eb="2">
+      <t>ヒテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視聴者1ID</t>
+    <rPh sb="0" eb="3">
+      <t>シチョウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視聴者2ID</t>
+    <rPh sb="0" eb="3">
+      <t>シチョウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視聴者3ID</t>
+    <rPh sb="0" eb="3">
+      <t>シチョウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視聴者4ID</t>
+    <rPh sb="0" eb="3">
+      <t>シチョウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視聴者5ID</t>
+    <rPh sb="0" eb="3">
+      <t>シチョウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視聴者6ID</t>
+    <rPh sb="0" eb="3">
+      <t>シチョウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参加者ID</t>
+    <rPh sb="0" eb="3">
+      <t>サンカシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種別</t>
+    <rPh sb="0" eb="2">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://ronpa.site</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ画面</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://ronpa.site/timeline</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムライン画面</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://ronpa.site/play</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定員オーバー</t>
+    <rPh sb="0" eb="2">
+      <t>テイイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対戦中画面</t>
+    <rPh sb="0" eb="3">
+      <t>タイセンチュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定員オーバー画面</t>
+    <rPh sb="0" eb="2">
+      <t>テイイン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>socket通信</t>
+    <rPh sb="6" eb="8">
+      <t>ツウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルーム参加要求</t>
+    <rPh sb="3" eb="5">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参加可能チェック</t>
+    <rPh sb="0" eb="2">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソケット接続要求</t>
+    <rPh sb="4" eb="6">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソケット接続応答</t>
+    <rPh sb="4" eb="6">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肯定または否定側の画面を押下</t>
+    <rPh sb="0" eb="2">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒテイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜サービス名＞</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜サービス概要＞</t>
+    <rPh sb="5" eb="7">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーマに沿って肯定側/否定側に分かれて討論を行うことができるサービス</t>
+    <rPh sb="4" eb="5">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒテイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜サービス詳細＞</t>
+    <rPh sb="5" eb="7">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→シート「ゲーム進行」参照</t>
+    <rPh sb="8" eb="10">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・興味のあるテーマについて「肯定/否定/視聴」のどれかを選択し参加することができる。</t>
+    <rPh sb="1" eb="3">
+      <t>キョウミ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シチョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・討論の勝敗は視聴者からの賛同ポイントの数できめる。</t>
+    <rPh sb="1" eb="3">
+      <t>トウロン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウハイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>シチョウシャ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サンドウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→肯定/否定で重複した参加をする場合は後者の参加をNGとする。</t>
+    <rPh sb="1" eb="3">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウシャ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・視聴者は討論中に肯定/否定のどちらかに賛同ポイントを送ることができる。</t>
+    <rPh sb="1" eb="4">
+      <t>シチョウシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サンドウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・討論はディベートの進行で行う。</t>
+    <rPh sb="1" eb="3">
+      <t>トウロン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>賛同ポイント加算要求</t>
+    <rPh sb="0" eb="2">
+      <t>サンドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進行タイマーのタイムアウト</t>
+    <rPh sb="0" eb="2">
+      <t>シンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進行指示応答</t>
+    <rPh sb="0" eb="2">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>オウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進行指示要求</t>
+    <rPh sb="0" eb="2">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>賛同アクション</t>
+    <rPh sb="0" eb="2">
+      <t>サンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のフェーズに移る</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>’参加’ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>’Go’ボタン押下</t>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,16 +669,94 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -304,13 +844,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -344,8 +911,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1003,13 +1616,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1026,8 +1639,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2204358" y="1006928"/>
-          <a:ext cx="1959428" cy="421822"/>
+          <a:off x="2143126" y="2095500"/>
+          <a:ext cx="1904999" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1078,6 +1691,84 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1C247F-1576-4613-8D99-A57A9F810EF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666876" y="1257300"/>
+          <a:ext cx="2857499" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>sikakou</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1109,8 +1800,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="734786" y="1020534"/>
-          <a:ext cx="5143500" cy="1428751"/>
+          <a:off x="714375" y="1042305"/>
+          <a:ext cx="5000625" cy="1472294"/>
           <a:chOff x="734786" y="1020534"/>
           <a:chExt cx="5143500" cy="1428751"/>
         </a:xfrm>
@@ -1892,8 +2583,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="734786" y="2857500"/>
-          <a:ext cx="5143500" cy="1428751"/>
+          <a:off x="714375" y="2933700"/>
+          <a:ext cx="5000625" cy="1466851"/>
           <a:chOff x="734786" y="1020534"/>
           <a:chExt cx="5143500" cy="1428751"/>
         </a:xfrm>
@@ -2675,8 +3366,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="734786" y="4694463"/>
-          <a:ext cx="5143500" cy="1428751"/>
+          <a:off x="714375" y="4814206"/>
+          <a:ext cx="5000625" cy="1472294"/>
           <a:chOff x="734786" y="1020534"/>
           <a:chExt cx="5143500" cy="1428751"/>
         </a:xfrm>
@@ -3441,13 +4132,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>244928</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3511,13 +4202,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3582,13 +4273,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3652,14 +4343,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>188945</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>20605</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3674,8 +4365,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="734786" y="1005374"/>
-          <a:ext cx="5143500" cy="627483"/>
+          <a:off x="714375" y="1047750"/>
+          <a:ext cx="5000625" cy="649255"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3727,13 +4418,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>235403</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3798,13 +4489,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>204106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3869,13 +4560,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3929,7 +4620,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>視聴者</a:t>
+            <a:t>ログ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3940,13 +4631,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4004,7 +4695,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>C</a:t>
+            <a:t>'C</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
@@ -4014,21 +4705,13 @@
             </a:rPr>
             <a:t>さん</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>D</a:t>
+            <a:t>'</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
@@ -4036,102 +4719,13 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>さん</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>E</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>さん</a:t>
+            <a:t>が入室しました。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>F</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>さん</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>G</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>さん</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>H</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>さん</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4141,13 +4735,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>244928</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>15161</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4220,13 +4814,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4299,13 +4893,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4321,8 +4915,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4163787" y="2653393"/>
-          <a:ext cx="1224642" cy="1836964"/>
+          <a:off x="4048126" y="3562350"/>
+          <a:ext cx="1190624" cy="1885950"/>
           <a:chOff x="7102929" y="1020536"/>
           <a:chExt cx="1224642" cy="1836964"/>
         </a:xfrm>
@@ -4424,13 +5018,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4446,8 +5040,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1224644" y="2653393"/>
-          <a:ext cx="1224642" cy="1836964"/>
+          <a:off x="1190626" y="3562350"/>
+          <a:ext cx="1190624" cy="1885950"/>
           <a:chOff x="7102929" y="1020536"/>
           <a:chExt cx="1224642" cy="1836964"/>
         </a:xfrm>
@@ -4543,6 +5137,97 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3DFEF38-82B9-4E20-91E0-F5C68D91C131}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="1885950"/>
+          <a:ext cx="5000625" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>あなた</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1500">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>肯定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5110,141 +5795,60 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>C</a:t>
+            <a:t>'C</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>さん</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が入室しました。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:effectLst/>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>D</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>さん</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>E</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>さん</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>F</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>さん</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>G</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>さん</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>H</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>さん</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5434,8 +6038,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4163787" y="2653393"/>
-          <a:ext cx="1224642" cy="1836964"/>
+          <a:off x="4048126" y="2724150"/>
+          <a:ext cx="1190624" cy="1885950"/>
           <a:chOff x="7102929" y="1020536"/>
           <a:chExt cx="1224642" cy="1836964"/>
         </a:xfrm>
@@ -5559,8 +6163,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1224644" y="2653393"/>
-          <a:ext cx="1224642" cy="1836964"/>
+          <a:off x="1190626" y="2724150"/>
+          <a:ext cx="1190624" cy="1885950"/>
           <a:chOff x="7102929" y="1020536"/>
           <a:chExt cx="1224642" cy="1836964"/>
         </a:xfrm>
@@ -6294,141 +6898,60 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>C</a:t>
+            <a:t>'C</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>さん</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が入室しました。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:effectLst/>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>D</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>さん</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>E</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>さん</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>F</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>さん</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>G</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>さん</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>H</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>さん</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6618,8 +7141,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4163787" y="2653393"/>
-          <a:ext cx="1224642" cy="1836964"/>
+          <a:off x="4048126" y="2724150"/>
+          <a:ext cx="1190624" cy="1885950"/>
           <a:chOff x="7102929" y="1020536"/>
           <a:chExt cx="1224642" cy="1836964"/>
         </a:xfrm>
@@ -6743,8 +7266,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1224644" y="2653393"/>
-          <a:ext cx="1224642" cy="1836964"/>
+          <a:off x="1190626" y="2724150"/>
+          <a:ext cx="1190624" cy="1885950"/>
           <a:chOff x="7102929" y="1020536"/>
           <a:chExt cx="1224642" cy="1836964"/>
         </a:xfrm>
@@ -6992,6 +7515,1051 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61169B85-F736-4E01-867C-4B7AF655B45F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3333750" y="419100"/>
+          <a:ext cx="3810000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93BDFDF2-0C98-46B1-A25F-268224BD5267}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3333750" y="838200"/>
+          <a:ext cx="3810000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CEE3787-6053-4C1E-A07D-D1C5D293F09A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3333750" y="1257300"/>
+          <a:ext cx="3810000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48D44C48-8386-499A-95DA-B769E493DA16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3333750" y="1676400"/>
+          <a:ext cx="3810000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{883161B8-0AA7-404B-911B-F1828763F3A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3333750" y="2095500"/>
+          <a:ext cx="3810000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{272A0D60-D1EC-482A-B326-98FECFF55567}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3333750" y="2933700"/>
+          <a:ext cx="3810000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A7F3A4-3F17-4167-AE39-BA53E0281ECE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714376" y="2514600"/>
+          <a:ext cx="8096250" cy="5448300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B649FFB-C27D-4CE2-9393-CE36598A40EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714376" y="6915150"/>
+          <a:ext cx="8096250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B441100C-A109-4A60-B1A6-D5FA3967F6CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3333750" y="3771900"/>
+          <a:ext cx="3810000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="フローチャート: 直接アクセス記憶 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE53268-919B-40C0-98B3-21E76D46B146}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857499" y="3771900"/>
+          <a:ext cx="4762501" cy="5029200"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDrum">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B26F8DF7-C020-4307-A43A-ABBDA8A03811}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3333750" y="3352800"/>
+          <a:ext cx="3810000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47310D4B-A777-4C4C-9F0C-EDE146906F5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3333750" y="4191000"/>
+          <a:ext cx="3810000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA37ADE1-02E1-483A-BB05-4433D986ACC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3333750" y="4610100"/>
+          <a:ext cx="3810000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27E0F7DA-636D-4E5C-A8D8-1DE2C4BD4BBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3333750" y="5448300"/>
+          <a:ext cx="3810000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15341D80-0596-49F2-B955-581F670ABBDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3333750" y="5867400"/>
+          <a:ext cx="3810000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A8A1D5-116B-46BE-88E4-66AD97285815}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3333750" y="6286500"/>
+          <a:ext cx="3810000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2661D5C-BBCD-49A0-9D57-04954E463763}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952499" y="5029201"/>
+          <a:ext cx="7381875" cy="2514599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2605</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB70559-287D-44C6-8791-274E58AD99CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="6076950"/>
+          <a:ext cx="7381875" cy="2605"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7293,13 +8861,296 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF074D3-0C7F-49B2-A93E-BCC75F812353}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="B2:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="24"/>
+    <col min="2" max="2" width="3.125" style="23"/>
+    <col min="3" max="16384" width="3.125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D10" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D12" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="D12" location="ゲーム進行!A1" display="→シート「ゲーム進行」参照" xr:uid="{56C6C5B5-2F3A-44AD-BA4D-5B6DFF4D972F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAD266D-8168-4D61-AC78-498434140B92}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="B1:I16"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="3.125" style="15" customWidth="1"/>
+    <col min="3" max="5" width="9" style="15" customWidth="1"/>
+    <col min="6" max="11" width="10" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="3.125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="8" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C11" s="16"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E0F025-CFB5-4706-93E7-E4C001BC82B3}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3CEB50-F7E5-4CCB-B3DD-1354929FB62A}">
+  <dimension ref="B2:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07730F8-17D9-444E-8F17-1E94D9786F65}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -7309,11 +9160,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FC36A7-885D-429A-B57D-B679ABF705BC}">
-  <dimension ref="B1:Z36"/>
+  <dimension ref="B1:Z41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -7354,16 +9205,16 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -7374,7 +9225,7 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -7383,14 +9234,14 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -7401,7 +9252,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -7410,14 +9261,14 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
@@ -7428,7 +9279,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="6"/>
     </row>
-    <row r="6" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -7437,14 +9288,14 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
@@ -7455,7 +9306,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -7464,14 +9315,14 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -7482,7 +9333,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="6"/>
     </row>
-    <row r="8" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -7491,14 +9342,14 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
@@ -7509,7 +9360,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="6"/>
     </row>
-    <row r="9" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -7518,14 +9369,14 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
@@ -8238,32 +10089,167 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="6"/>
     </row>
-    <row r="36" spans="2:26" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="9"/>
+    <row r="36" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="6"/>
+    </row>
+    <row r="37" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="6"/>
+    </row>
+    <row r="38" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="6"/>
+    </row>
+    <row r="39" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="6"/>
+    </row>
+    <row r="40" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="6"/>
+    </row>
+    <row r="41" spans="2:26" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8276,11 +10262,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13A0962-FD79-412F-A208-64D2E17FB33B}">
   <dimension ref="B1:Z38"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -8321,16 +10307,16 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -8350,14 +10336,14 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -9297,13 +11283,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E905497D-6AD1-4351-92EB-7EDA53BC2D16}">
-  <dimension ref="B1:Z38"/>
+  <dimension ref="B1:Z42"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R57" sqref="R57"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -9344,16 +11328,16 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -9373,14 +11357,14 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -9400,14 +11384,14 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
@@ -9427,14 +11411,14 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
@@ -9454,14 +11438,14 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -9481,14 +11465,14 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
@@ -10282,32 +12266,140 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="6"/>
     </row>
-    <row r="38" spans="2:26" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="9"/>
+    <row r="38" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="6"/>
+    </row>
+    <row r="39" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="6"/>
+    </row>
+    <row r="40" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="6"/>
+    </row>
+    <row r="41" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="6"/>
+    </row>
+    <row r="42" spans="2:26" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10320,13 +12412,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B400DBED-1939-4F4C-B9C6-B730AF5533D7}">
   <dimension ref="B1:Z38"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD52" sqref="AD52"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -10367,16 +12457,16 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -10396,14 +12486,14 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -11343,11 +13433,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A0C499-1E1F-4CA5-92BF-DBB02E27C5FE}">
   <dimension ref="B1:Z38"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -11388,16 +13478,16 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -11417,14 +13507,14 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -12364,86 +14454,143 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3CEB50-F7E5-4CCB-B3DD-1354929FB62A}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683E3905-CA7D-4140-A7FD-41B4E6BAC7F4}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="B2:B11"/>
+  <dimension ref="D1:AF43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AY9" sqref="AY9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="14" width="3.125" style="17"/>
+    <col min="15" max="15" width="3.125" style="18"/>
+    <col min="16" max="30" width="3.125" style="17"/>
+    <col min="31" max="31" width="3.125" style="18"/>
+    <col min="32" max="16384" width="3.125" style="17"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>1</v>
+    <row r="1" spans="4:32" s="21" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="4:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q2" s="19" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>2</v>
+    <row r="4" spans="4:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA4" s="17" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>3</v>
+    <row r="6" spans="4:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I6" s="20" t="s">
+        <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>4</v>
+      <c r="Q6" s="19" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>5</v>
+    <row r="8" spans="4:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA8" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>7</v>
+    <row r="10" spans="4:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I10" s="20" t="s">
+        <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>8</v>
+      <c r="Q10" s="19" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>9</v>
+    <row r="11" spans="4:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AF11" s="17" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>10</v>
+    <row r="13" spans="4:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D13" s="22" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>6</v>
+    <row r="14" spans="4:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA14" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="4:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R16" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="5:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S18" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="5:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R20" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="5:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R23" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="5:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E25" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="5:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F27" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="R27" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="5:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E31" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="4:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F33" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="R33" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="4:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z35" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="4:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D41" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="4:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA43" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{F3A5E125-0A8D-42B9-BC35-4F031B2FE346}"/>
+    <hyperlink ref="Q6" r:id="rId2" xr:uid="{334BD8D3-A011-4D90-8B45-5EBC2E01E15C}"/>
+    <hyperlink ref="Q10" r:id="rId3" xr:uid="{DB2B3947-81F9-40F4-AA55-16A921080728}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E0F025-CFB5-4706-93E7-E4C001BC82B3}">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/nodejs/app4/doc/設計.xlsx
+++ b/nodejs/app4/doc/設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sikak\Desktop\sikakou\project\web\nodejs\app4\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C5D037-5A48-4952-9866-8F615230878F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968934E1-A41D-4216-ACA0-3E2630F8FDDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{A542984A-2467-45E1-964A-F41FA6CB0CB1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{A542984A-2467-45E1-964A-F41FA6CB0CB1}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様" sheetId="11" r:id="rId1"/>
@@ -877,7 +877,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -955,6 +955,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1779,20 +1782,20 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>204105</xdr:rowOff>
+      <xdr:rowOff>209549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:rowOff>209548</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="20" name="グループ化 19">
+        <xdr:cNvPr id="21" name="グループ化 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE997F2-351A-4C09-8D1E-D98C7C4473F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73DD434A-83D1-4006-A671-5A9C702CEB9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1800,10 +1803,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="714375" y="1042305"/>
-          <a:ext cx="5000625" cy="1472294"/>
-          <a:chOff x="734786" y="1020534"/>
-          <a:chExt cx="5143500" cy="1428751"/>
+          <a:off x="734786" y="1025978"/>
+          <a:ext cx="5143500" cy="1632856"/>
+          <a:chOff x="714375" y="1047749"/>
+          <a:chExt cx="5000625" cy="1676399"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -1819,9 +1822,9 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="857253" y="1932213"/>
-            <a:ext cx="1034143" cy="381000"/>
-            <a:chOff x="966108" y="1768929"/>
+            <a:off x="833440" y="2191318"/>
+            <a:ext cx="1005417" cy="392611"/>
+            <a:chOff x="966108" y="1768927"/>
             <a:chExt cx="1292679" cy="476250"/>
           </a:xfrm>
         </xdr:grpSpPr>
@@ -1838,8 +1841,8 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="966108" y="1768929"/>
-              <a:ext cx="503463" cy="476250"/>
+              <a:off x="966108" y="1768927"/>
+              <a:ext cx="503462" cy="476250"/>
               <a:chOff x="966108" y="1768929"/>
               <a:chExt cx="503463" cy="476250"/>
             </a:xfrm>
@@ -2013,9 +2016,9 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="2102307" y="1932213"/>
-            <a:ext cx="1034143" cy="381000"/>
-            <a:chOff x="966108" y="1768929"/>
+            <a:off x="2043909" y="2191318"/>
+            <a:ext cx="1005417" cy="392611"/>
+            <a:chOff x="966108" y="1768927"/>
             <a:chExt cx="1292679" cy="476250"/>
           </a:xfrm>
         </xdr:grpSpPr>
@@ -2032,8 +2035,8 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="966108" y="1768929"/>
-              <a:ext cx="503463" cy="476250"/>
+              <a:off x="966108" y="1768927"/>
+              <a:ext cx="503462" cy="476250"/>
               <a:chOff x="966108" y="1768929"/>
               <a:chExt cx="503463" cy="476250"/>
             </a:xfrm>
@@ -2205,9 +2208,9 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="3347361" y="1932213"/>
-            <a:ext cx="1034143" cy="381000"/>
-            <a:chOff x="966108" y="1768929"/>
+            <a:off x="3254378" y="2191318"/>
+            <a:ext cx="1005417" cy="392611"/>
+            <a:chOff x="966108" y="1768927"/>
             <a:chExt cx="1292679" cy="476250"/>
           </a:xfrm>
         </xdr:grpSpPr>
@@ -2224,8 +2227,8 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="966108" y="1768929"/>
-              <a:ext cx="503463" cy="476250"/>
+              <a:off x="966108" y="1768927"/>
+              <a:ext cx="503462" cy="476250"/>
               <a:chOff x="966108" y="1768929"/>
               <a:chExt cx="503463" cy="476250"/>
             </a:xfrm>
@@ -2398,8 +2401,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4599215" y="1905000"/>
-            <a:ext cx="1020536" cy="421822"/>
+            <a:off x="4471459" y="2163276"/>
+            <a:ext cx="992188" cy="434678"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2456,8 +2459,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="979714" y="1224643"/>
-            <a:ext cx="4653643" cy="408214"/>
+            <a:off x="952499" y="1466850"/>
+            <a:ext cx="4524375" cy="415989"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2516,8 +2519,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="734786" y="1020534"/>
-            <a:ext cx="5143500" cy="1428751"/>
+            <a:off x="714375" y="1047749"/>
+            <a:ext cx="5000625" cy="1676399"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2554,6 +2557,71 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="59" name="正方形/長方形 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1FFC5F9-05B5-46B3-A8C2-2925031A6556}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="714375" y="1047749"/>
+            <a:ext cx="1666875" cy="209551"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>RoomID:XXXXXX</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -2561,21 +2629,21 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="78" name="グループ化 77">
+        <xdr:cNvPr id="61" name="グループ化 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB08F242-26AD-44B7-818A-41EAD4DDE294}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F64EF8-F92B-4953-8A20-B7FCDD54155D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2583,18 +2651,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="714375" y="2933700"/>
-          <a:ext cx="5000625" cy="1466851"/>
-          <a:chOff x="734786" y="1020534"/>
-          <a:chExt cx="5143500" cy="1428751"/>
+          <a:off x="734786" y="3265714"/>
+          <a:ext cx="5143500" cy="1638299"/>
+          <a:chOff x="714375" y="1047749"/>
+          <a:chExt cx="5000625" cy="1676399"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="79" name="グループ化 78">
+          <xdr:cNvPr id="62" name="グループ化 61">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C485CCB7-5E5A-445B-A22D-05269E4016F8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A82EAD1E-2D5D-4A96-8FBA-AC2DFCB4F9D5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2602,18 +2670,18 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="857253" y="1932213"/>
-            <a:ext cx="1034143" cy="381000"/>
-            <a:chOff x="966108" y="1768929"/>
+            <a:off x="833440" y="2191318"/>
+            <a:ext cx="1005417" cy="392611"/>
+            <a:chOff x="966108" y="1768927"/>
             <a:chExt cx="1292679" cy="476250"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="93" name="グループ化 92">
+            <xdr:cNvPr id="77" name="グループ化 76">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B526C2FA-D32B-4ED2-822B-B5E9A9C8951F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7543B190-CD47-44E3-A893-4681BDC2A3BE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2621,18 +2689,18 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="966108" y="1768929"/>
-              <a:ext cx="503463" cy="476250"/>
+              <a:off x="966108" y="1768927"/>
+              <a:ext cx="503462" cy="476250"/>
               <a:chOff x="966108" y="1768929"/>
               <a:chExt cx="503463" cy="476250"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="95" name="楕円 94">
+              <xdr:cNvPr id="117" name="楕円 116">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5632B0AF-C701-4003-B858-5AF75402FBDC}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42653C79-FDDD-4D32-877A-F4ADB02C08D2}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2680,10 +2748,10 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="96" name="楕円 95">
+              <xdr:cNvPr id="118" name="楕円 117">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{675BA793-07E8-443B-A15B-E020942ED991}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{923DDF27-DAB5-4F7A-8776-BB9375A924D4}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2734,10 +2802,10 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="94" name="テキスト ボックス 93">
+            <xdr:cNvPr id="116" name="テキスト ボックス 115">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59821B77-708A-4BE6-BCA7-D64518C9A438}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70FBDE4C-E756-4930-A90B-B248FEE070C6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2785,10 +2853,10 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="80" name="グループ化 79">
+          <xdr:cNvPr id="63" name="グループ化 62">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C1426B0-4919-4DD6-8735-39FB72752118}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB1714E-124B-42B0-8660-AD8F9BC8F356}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2796,18 +2864,18 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="2102307" y="1932213"/>
-            <a:ext cx="1034143" cy="381000"/>
-            <a:chOff x="966108" y="1768929"/>
+            <a:off x="2043909" y="2191318"/>
+            <a:ext cx="1005417" cy="392611"/>
+            <a:chOff x="966108" y="1768927"/>
             <a:chExt cx="1292679" cy="476250"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="89" name="グループ化 88">
+            <xdr:cNvPr id="73" name="グループ化 72">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C32CAC18-68CF-4D45-A91D-CD320A7A901F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EEC7C15-A275-4001-8AF9-97D9039D9C59}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2815,18 +2883,18 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="966108" y="1768929"/>
-              <a:ext cx="503463" cy="476250"/>
+              <a:off x="966108" y="1768927"/>
+              <a:ext cx="503462" cy="476250"/>
               <a:chOff x="966108" y="1768929"/>
               <a:chExt cx="503463" cy="476250"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="91" name="楕円 90">
+              <xdr:cNvPr id="75" name="楕円 74">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130A8415-045E-4B36-89BA-BC3C94AF87E5}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E560341F-F43E-4BC9-AAF8-F78AF8201A18}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2874,10 +2942,10 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="92" name="楕円 91">
+              <xdr:cNvPr id="76" name="楕円 75">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE516E07-3C59-4EF7-A997-6272BF3AC165}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{465FB98A-82F9-43AB-8BDD-2E6AF05513C1}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2926,10 +2994,10 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="90" name="テキスト ボックス 89">
+            <xdr:cNvPr id="74" name="テキスト ボックス 73">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAAF0A08-FA24-43D1-B98E-F51347705C56}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10C893D8-EA2F-422F-BAEF-BBCFD888002C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2977,10 +3045,10 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="81" name="グループ化 80">
+          <xdr:cNvPr id="64" name="グループ化 63">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F7899A-7D2C-4EA1-8638-91C3D6B02960}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ED9A79F-52F1-4F2E-90D0-14F83E09132E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2988,18 +3056,18 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="3347361" y="1932213"/>
-            <a:ext cx="1034143" cy="381000"/>
-            <a:chOff x="966108" y="1768929"/>
+            <a:off x="3254378" y="2191318"/>
+            <a:ext cx="1005417" cy="392611"/>
+            <a:chOff x="966108" y="1768927"/>
             <a:chExt cx="1292679" cy="476250"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="85" name="グループ化 84">
+            <xdr:cNvPr id="69" name="グループ化 68">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37CBBE6D-26EC-4EDE-9A21-2F0C63237A8C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21443316-5CD3-4C8F-A0D6-DD48DE42BB7B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3007,18 +3075,18 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="966108" y="1768929"/>
-              <a:ext cx="503463" cy="476250"/>
+              <a:off x="966108" y="1768927"/>
+              <a:ext cx="503462" cy="476250"/>
               <a:chOff x="966108" y="1768929"/>
               <a:chExt cx="503463" cy="476250"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="87" name="楕円 86">
+              <xdr:cNvPr id="71" name="楕円 70">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5797238-0191-4C1A-9D2A-75578BB84121}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7089F4B-E81B-43E9-B4AE-19D98413F7E3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3066,10 +3134,10 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="88" name="楕円 87">
+              <xdr:cNvPr id="72" name="楕円 71">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2265992-AB65-47BE-9124-EFD0EF4AD865}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42FAB942-A8DE-4BE7-9E85-6EA93001DC9C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3118,10 +3186,10 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="86" name="テキスト ボックス 85">
+            <xdr:cNvPr id="70" name="テキスト ボックス 69">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E7EAA3-12FA-4A45-9D7C-6C0A30C7BCAE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B69237D-C57E-4801-91CC-8D98432830B7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3169,11 +3237,11 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="82" name="正方形/長方形 81">
+          <xdr:cNvPr id="65" name="正方形/長方形 64">
             <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8182333-91A2-4408-B00C-2BFBADE1B89D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F67114B-82A5-425D-9DE4-24758C0B6FEB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3181,8 +3249,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4599215" y="1905000"/>
-            <a:ext cx="1020536" cy="421822"/>
+            <a:off x="4471459" y="2163276"/>
+            <a:ext cx="992188" cy="434678"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3228,10 +3296,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="83" name="正方形/長方形 82">
+          <xdr:cNvPr id="66" name="正方形/長方形 65">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{680BEBAB-F177-46C1-893B-C7B02575000B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B89D8D-1CC0-4654-B563-3552CF469AAD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3239,8 +3307,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="979714" y="1224643"/>
-            <a:ext cx="4653643" cy="408214"/>
+            <a:off x="952499" y="1466850"/>
+            <a:ext cx="4524375" cy="415989"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3281,17 +3349,17 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>一生賃貸で良い</a:t>
+              <a:t>一生賃貸でいい</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="84" name="正方形/長方形 83">
+          <xdr:cNvPr id="67" name="正方形/長方形 66">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5257E0DE-763F-4400-830F-6F5F0ED21E47}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8459CDB5-129C-476A-ABCF-3AE46C91AA0D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3299,8 +3367,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="734786" y="1020534"/>
-            <a:ext cx="5143500" cy="1428751"/>
+            <a:off x="714375" y="1047749"/>
+            <a:ext cx="5000625" cy="1676399"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3337,6 +3405,71 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="68" name="正方形/長方形 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01B844EE-854D-48A0-9FF4-26E5A8035273}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="714375" y="1047749"/>
+            <a:ext cx="1666875" cy="209551"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>RoomID:XXXXXX</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -3344,21 +3477,21 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>204106</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="97" name="グループ化 96">
+        <xdr:cNvPr id="119" name="グループ化 118">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C02F612A-E3AB-4397-B525-F54604880CA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA02445C-ABB9-45D4-9D4E-EAE2C7A0B953}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3366,18 +3499,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="714375" y="4814206"/>
-          <a:ext cx="5000625" cy="1472294"/>
-          <a:chOff x="734786" y="1020534"/>
-          <a:chExt cx="5143500" cy="1428751"/>
+          <a:off x="734786" y="5510894"/>
+          <a:ext cx="5143500" cy="1632856"/>
+          <a:chOff x="714375" y="1047749"/>
+          <a:chExt cx="5000625" cy="1676399"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="98" name="グループ化 97">
+          <xdr:cNvPr id="120" name="グループ化 119">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D413C8-4414-4EED-A6A8-55B3B95C3BAF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E372ECC2-EAE2-4C82-9B12-B8F65B6626AD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3385,18 +3518,18 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="857253" y="1932213"/>
-            <a:ext cx="1034143" cy="381000"/>
-            <a:chOff x="966108" y="1768929"/>
+            <a:off x="833440" y="2191318"/>
+            <a:ext cx="1005417" cy="392611"/>
+            <a:chOff x="966108" y="1768927"/>
             <a:chExt cx="1292679" cy="476250"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="112" name="グループ化 111">
+            <xdr:cNvPr id="135" name="グループ化 134">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{512B162E-3296-48D4-B544-59C921F96851}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38836CC6-0F11-410E-AA1A-C73A24828FBF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3404,18 +3537,18 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="966108" y="1768929"/>
-              <a:ext cx="503463" cy="476250"/>
+              <a:off x="966108" y="1768927"/>
+              <a:ext cx="503462" cy="476250"/>
               <a:chOff x="966108" y="1768929"/>
               <a:chExt cx="503463" cy="476250"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="114" name="楕円 113">
+              <xdr:cNvPr id="137" name="楕円 136">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9419D523-8B83-4DFB-B751-B09191AB383F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE18C69E-B597-4CD2-A242-F7B24CF70E25}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3463,10 +3596,10 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="115" name="楕円 114">
+              <xdr:cNvPr id="138" name="楕円 137">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6105E8B-FBF8-42BA-832D-158F08A436C9}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAA34736-F91B-4039-AC49-A100410E370B}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3517,10 +3650,10 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="113" name="テキスト ボックス 112">
+            <xdr:cNvPr id="136" name="テキスト ボックス 135">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EAAF0C0-C81A-4A47-B5CE-7F758C3DEECD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A7A8D8-8213-43EF-A6C3-C6973331458A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3568,10 +3701,10 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="99" name="グループ化 98">
+          <xdr:cNvPr id="121" name="グループ化 120">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7B02841-DC75-4218-BFC2-A44E7D1EDD70}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA219D29-56B1-42A7-A0C7-CBE69B1B64C8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3579,18 +3712,18 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="2102307" y="1932213"/>
-            <a:ext cx="1034143" cy="381000"/>
-            <a:chOff x="966108" y="1768929"/>
+            <a:off x="2043909" y="2191318"/>
+            <a:ext cx="1005417" cy="392611"/>
+            <a:chOff x="966108" y="1768927"/>
             <a:chExt cx="1292679" cy="476250"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="108" name="グループ化 107">
+            <xdr:cNvPr id="131" name="グループ化 130">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D0FBA67-F5D8-4384-B61A-4FD228373861}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF498E0A-DE7B-4383-8B53-35949892BAD8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3598,18 +3731,18 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="966108" y="1768929"/>
-              <a:ext cx="503463" cy="476250"/>
+              <a:off x="966108" y="1768927"/>
+              <a:ext cx="503462" cy="476250"/>
               <a:chOff x="966108" y="1768929"/>
               <a:chExt cx="503463" cy="476250"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="110" name="楕円 109">
+              <xdr:cNvPr id="133" name="楕円 132">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56359A10-3AB6-4BB2-9F3D-AD0DD005E883}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2E868C4-667D-432F-9A3E-BC832D4B3C7C}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3657,10 +3790,10 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="111" name="楕円 110">
+              <xdr:cNvPr id="134" name="楕円 133">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7BCCAEE-4B48-44A4-9820-BE2371D1C267}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF457A5-38C1-467D-B656-5DF3E33FCB3A}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3709,10 +3842,10 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="109" name="テキスト ボックス 108">
+            <xdr:cNvPr id="132" name="テキスト ボックス 131">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D9BB0D-F892-4394-89BD-3D8DEF7562E7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F64193-0EBE-4148-869F-4A13CDA2C304}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3760,10 +3893,10 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="100" name="グループ化 99">
+          <xdr:cNvPr id="122" name="グループ化 121">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C8A14C-EE15-448A-B361-32BBB63D4375}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B0AD63-F950-40EC-A947-B9116AE53749}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3771,18 +3904,18 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="3347361" y="1932213"/>
-            <a:ext cx="1034143" cy="381000"/>
-            <a:chOff x="966108" y="1768929"/>
+            <a:off x="3254378" y="2191318"/>
+            <a:ext cx="1005417" cy="392611"/>
+            <a:chOff x="966108" y="1768927"/>
             <a:chExt cx="1292679" cy="476250"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="104" name="グループ化 103">
+            <xdr:cNvPr id="127" name="グループ化 126">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F90E19F6-4DA0-406C-A470-F5B7AE5E8856}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97ADA745-5F7B-431E-86AB-623734EE7AAA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3790,18 +3923,18 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="966108" y="1768929"/>
-              <a:ext cx="503463" cy="476250"/>
+              <a:off x="966108" y="1768927"/>
+              <a:ext cx="503462" cy="476250"/>
               <a:chOff x="966108" y="1768929"/>
               <a:chExt cx="503463" cy="476250"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="106" name="楕円 105">
+              <xdr:cNvPr id="129" name="楕円 128">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA59D25C-8BF6-4D08-B8F5-DFCD767FC4A3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73143D3C-7FCF-4B46-B4FF-8577247C946D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3849,10 +3982,10 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="107" name="楕円 106">
+              <xdr:cNvPr id="130" name="楕円 129">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{993180C2-3F02-4D3F-86A8-B1A52DCBA028}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{192851AE-E29E-4FED-AA95-E54C0AB2755D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3901,10 +4034,10 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="105" name="テキスト ボックス 104">
+            <xdr:cNvPr id="128" name="テキスト ボックス 127">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9256E845-8678-4C91-A4D1-522DEA90D86C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{737B5FF5-BE95-4041-9207-0B12123B0CC9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3952,11 +4085,11 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="101" name="正方形/長方形 100">
+          <xdr:cNvPr id="123" name="正方形/長方形 122">
             <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF90DF91-5990-4B29-8DFF-FB4A67241AB0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46545791-C0F3-4540-B7E4-D2AA5AE06ED5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3964,8 +4097,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4599215" y="1905000"/>
-            <a:ext cx="1020536" cy="421822"/>
+            <a:off x="4471459" y="2163276"/>
+            <a:ext cx="992188" cy="434678"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4011,10 +4144,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="102" name="正方形/長方形 101">
+          <xdr:cNvPr id="124" name="正方形/長方形 123">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D23704B5-9EF5-4C21-AAF6-FE7BCD724026}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAACBF16-62FA-4250-BA28-6A98E585804F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4022,8 +4155,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="979714" y="1224643"/>
-            <a:ext cx="4653643" cy="408214"/>
+            <a:off x="952499" y="1466850"/>
+            <a:ext cx="4524375" cy="415989"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4064,17 +4197,17 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>ベーシックインカムを導入すべきである</a:t>
+              <a:t>日本でもベーシックインカムをどうするべきだ</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="103" name="正方形/長方形 102">
+          <xdr:cNvPr id="125" name="正方形/長方形 124">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80787290-EF06-4B90-8281-83E837658CB6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B11967A2-6A87-4566-A2BD-00E5C198D78E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4082,8 +4215,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="734786" y="1020534"/>
-            <a:ext cx="5143500" cy="1428751"/>
+            <a:off x="714375" y="1047749"/>
+            <a:ext cx="5000625" cy="1676399"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4120,6 +4253,71 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="126" name="正方形/長方形 125">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42AA5316-78F8-4CF4-964A-6061A889EB2F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="714375" y="1047749"/>
+            <a:ext cx="1666875" cy="209551"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>RoomID:XXXXXX</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -4132,13 +4330,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>244928</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4202,13 +4400,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4273,13 +4471,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4343,14 +4541,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>183503</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>20605</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4365,8 +4563,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714375" y="1047750"/>
-          <a:ext cx="5000625" cy="649255"/>
+          <a:off x="734786" y="1612253"/>
+          <a:ext cx="5143500" cy="632926"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4418,13 +4616,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>235403</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4489,13 +4687,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>204106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4560,13 +4758,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4631,13 +4829,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4735,13 +4933,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>244928</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>15161</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4814,13 +5012,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4893,13 +5091,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4915,8 +5113,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4048126" y="3562350"/>
-          <a:ext cx="1190624" cy="1885950"/>
+          <a:off x="4163787" y="2857500"/>
+          <a:ext cx="1224642" cy="1836964"/>
           <a:chOff x="7102929" y="1020536"/>
           <a:chExt cx="1224642" cy="1836964"/>
         </a:xfrm>
@@ -5018,13 +5216,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5040,8 +5238,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1190626" y="3562350"/>
-          <a:ext cx="1190624" cy="1885950"/>
+          <a:off x="1224644" y="2857500"/>
+          <a:ext cx="1224642" cy="1836964"/>
           <a:chOff x="7102929" y="1020536"/>
           <a:chExt cx="1224642" cy="1836964"/>
         </a:xfrm>
@@ -5141,15 +5339,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>235403</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5165,8 +5363,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714375" y="1885950"/>
-          <a:ext cx="5000625" cy="628650"/>
+          <a:off x="2204357" y="1224643"/>
+          <a:ext cx="1460046" cy="204107"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5202,7 +5400,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -5210,7 +5408,7 @@
             <a:t>あなた</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1500">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -5218,13 +5416,93 @@
             <a:t>:</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>肯定</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5F46298-00B7-4710-943B-B29A4A20768F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="744311" y="1224643"/>
+          <a:ext cx="1460046" cy="204107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1500">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00000001</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9205,16 +9483,16 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -9234,14 +9512,14 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -10264,9 +10542,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13A0962-FD79-412F-A208-64D2E17FB33B}">
-  <dimension ref="B1:Z38"/>
+  <dimension ref="B1:Z39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -10307,16 +10585,16 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -10336,14 +10614,14 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -11245,32 +11523,59 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="6"/>
     </row>
-    <row r="38" spans="2:26" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="9"/>
+    <row r="38" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="6"/>
+    </row>
+    <row r="39" spans="2:26" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11285,9 +11590,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E905497D-6AD1-4351-92EB-7EDA53BC2D16}">
-  <dimension ref="B1:Z42"/>
+  <dimension ref="B1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -11328,16 +11633,16 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -11348,7 +11653,7 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -11357,14 +11662,14 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -11375,7 +11680,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -11384,14 +11689,14 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
@@ -11492,14 +11797,14 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
@@ -12293,113 +12598,32 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="6"/>
     </row>
-    <row r="39" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="6"/>
-    </row>
-    <row r="40" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="6"/>
-    </row>
-    <row r="41" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="6"/>
-    </row>
-    <row r="42" spans="2:26" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="7"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="9"/>
+    <row r="39" spans="2:26" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12457,16 +12681,16 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -12486,14 +12710,14 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -13478,16 +13702,16 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -13507,14 +13731,14 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>

--- a/nodejs/app4/doc/設計.xlsx
+++ b/nodejs/app4/doc/設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sikak\Desktop\sikakou\project\web\nodejs\app4\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968934E1-A41D-4216-ACA0-3E2630F8FDDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDCDBC6-8FCC-4BCD-8B1D-5344F7FC1C32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{A542984A-2467-45E1-964A-F41FA6CB0CB1}"/>
+    <workbookView xWindow="-20610" yWindow="4560" windowWidth="20730" windowHeight="11310" firstSheet="5" activeTab="9" xr2:uid="{A08DDA38-1BB8-4924-BFC3-03E8153A772F}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様" sheetId="11" r:id="rId1"/>
@@ -22,8 +22,10 @@
     <sheet name="対戦結果集計画面" sheetId="7" r:id="rId7"/>
     <sheet name="対戦結果画面" sheetId="8" r:id="rId8"/>
     <sheet name="シーケンス" sheetId="10" r:id="rId9"/>
-    <sheet name="DB" sheetId="9" r:id="rId10"/>
-    <sheet name="ユースケース" sheetId="5" r:id="rId11"/>
+    <sheet name="P2P接続" sheetId="12" r:id="rId10"/>
+    <sheet name="情報" sheetId="13" r:id="rId11"/>
+    <sheet name="ユースケース" sheetId="5" r:id="rId12"/>
+    <sheet name="DB" sheetId="9" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
   <si>
     <t>論破.net</t>
     <rPh sb="0" eb="2">
@@ -638,12 +640,257 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>positive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>negative</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signaling</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>positive &lt;--&gt; negative</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CONNECTION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebRTC通信(OFFER)</t>
+    <rPh sb="6" eb="8">
+      <t>ツウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebRTC通信(ANSWER)</t>
+    <rPh sb="6" eb="8">
+      <t>ツウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POSITIVE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NAGATIVE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROOM-ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>socket.id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WACTHERS[n]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>room-id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜ROOM_TBL＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROOM_TBL登録</t>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENTER要求(ROOM-ID,&lt;POSITIVE/NEGATIVE/WACTHER&gt;</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENTER応答（結果）</t>
+    <rPh sb="5" eb="7">
+      <t>オウトウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MEDIA要求</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MEDIA応答</t>
+    <rPh sb="5" eb="7">
+      <t>オウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RTC接続要求(ROOM_TBL.NEGATIVE)</t>
+    <rPh sb="3" eb="5">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RTC接続要求(ROOM_TBL.WACHERS[n])</t>
+    <rPh sb="3" eb="5">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>watchers[n]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>positive &lt;--&gt; wachers[n]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>negative &lt;--&gt; wachers[n]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RTC通信(OFFER)</t>
+    <rPh sb="3" eb="5">
+      <t>ツウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RTC通信(ANSWER)</t>
+    <rPh sb="3" eb="5">
+      <t>ツウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視聴者RTC接続要求(ROOM_TBL.WACHERS[n])</t>
+    <rPh sb="0" eb="3">
+      <t>シチョウシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配信者RTC接続応答</t>
+    <rPh sb="0" eb="2">
+      <t>ハイシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜メッセージ＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信元</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信先</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信データ</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ種別</t>
+    <rPh sb="3" eb="5">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接続応答(NEGATIVE)</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>オウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接続応答(WATCHERS[n])</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>オウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,8 +988,53 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -755,8 +1047,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -868,6 +1172,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -877,7 +1218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -956,7 +1297,61 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1803,8 +2198,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="734786" y="1025978"/>
-          <a:ext cx="5143500" cy="1632856"/>
+          <a:off x="714375" y="1047749"/>
+          <a:ext cx="5000625" cy="1676399"/>
           <a:chOff x="714375" y="1047749"/>
           <a:chExt cx="5000625" cy="1676399"/>
         </a:xfrm>
@@ -2651,8 +3046,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="734786" y="3265714"/>
-          <a:ext cx="5143500" cy="1638299"/>
+          <a:off x="714375" y="3352800"/>
+          <a:ext cx="5000625" cy="1676399"/>
           <a:chOff x="714375" y="1047749"/>
           <a:chExt cx="5000625" cy="1676399"/>
         </a:xfrm>
@@ -3499,8 +3894,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="734786" y="5510894"/>
-          <a:ext cx="5143500" cy="1632856"/>
+          <a:off x="714375" y="5657851"/>
+          <a:ext cx="5000625" cy="1676399"/>
           <a:chOff x="714375" y="1047749"/>
           <a:chExt cx="5000625" cy="1676399"/>
         </a:xfrm>
@@ -5113,8 +5508,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4163787" y="2857500"/>
-          <a:ext cx="1224642" cy="1836964"/>
+          <a:off x="4048126" y="2933700"/>
+          <a:ext cx="1190624" cy="1885950"/>
           <a:chOff x="7102929" y="1020536"/>
           <a:chExt cx="1224642" cy="1836964"/>
         </a:xfrm>
@@ -5238,8 +5633,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1224644" y="2857500"/>
-          <a:ext cx="1224642" cy="1836964"/>
+          <a:off x="1190626" y="2933700"/>
+          <a:ext cx="1190624" cy="1885950"/>
           <a:chOff x="7102929" y="1020536"/>
           <a:chExt cx="1224642" cy="1836964"/>
         </a:xfrm>
@@ -8821,6 +9216,1757 @@
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3596CB2E-6374-46DC-B764-A67535AC49E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2353235" y="851647"/>
+          <a:ext cx="7059706" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C8A466-CF04-40C7-9D9A-0E1F06FFEFB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2353235" y="1064559"/>
+          <a:ext cx="7059706" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04858933-CCF0-4A3D-B841-07CAB8E16432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2117912" y="8337176"/>
+          <a:ext cx="11295529" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED02CB6-9EA5-40D9-98E2-C49E19C14A63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2117913" y="9614647"/>
+          <a:ext cx="11295528" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="正方形/長方形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A45642-EBBC-4B97-A8A5-B655EAEC1400}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1176618" y="889746"/>
+          <a:ext cx="12707470" cy="1448921"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線矢印コネクタ 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC23AF74-702D-4D65-AA78-68ABD61A11A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="3562350"/>
+          <a:ext cx="11430000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="正方形/長方形 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AE79727-D047-4D13-AEDC-6D59F0AFA0B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1176618" y="2767853"/>
+          <a:ext cx="12707470" cy="1064559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="正方形/長方形 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D56A270-E783-4220-AE8F-EE6149B397D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1176618" y="5748618"/>
+          <a:ext cx="12707470" cy="2767853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直線矢印コネクタ 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C1AF252-87F3-495F-BB72-71F851C82FCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2117913" y="6846794"/>
+          <a:ext cx="11295528" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直線矢印コネクタ 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D6F5878-B834-487E-86C3-3159504F4A7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4941794" y="8763000"/>
+          <a:ext cx="8471647" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="直線矢印コネクタ 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C21314F-1E4A-47B2-9AF8-5F15636B0396}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4941794" y="9188824"/>
+          <a:ext cx="8471647" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="直線矢印コネクタ 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5A0CFC4-BCC6-4799-8591-697A8BE7DB2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2204358" y="8218714"/>
+          <a:ext cx="11756571" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="直線矢印コネクタ 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74580ECB-BBC1-49B1-BD45-BFBD120A7C01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2204357" y="8626929"/>
+          <a:ext cx="11756572" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59D95471-F235-496F-8FE4-27CBA0225A2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2117913" y="3619500"/>
+          <a:ext cx="11295528" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{111D2373-208A-4BED-B2CE-8424D1613CE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2117912" y="8303559"/>
+          <a:ext cx="11295529" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094E90A4-9192-469F-83F3-CD4F51334D7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1176618" y="4258235"/>
+          <a:ext cx="12707470" cy="1064559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44E0D40C-A5C9-40A3-BC87-57174E22EFE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2117912" y="6600265"/>
+          <a:ext cx="11295529" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76E3C2A3-1BA5-417A-8D2D-F4C38CA83DC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2117913" y="7877735"/>
+          <a:ext cx="11295528" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADC3F3B-17A3-4FA2-AFBC-A64CC2C97A1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1176618" y="5748618"/>
+          <a:ext cx="12707470" cy="2767853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{152050DF-3A16-47BC-8298-E1D8A2C3DA87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2117913" y="6174441"/>
+          <a:ext cx="11295528" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F6130F-A813-4359-A56D-F5220EE7647B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7765676" y="10219765"/>
+          <a:ext cx="2823884" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92567369-A02C-48B1-BD01-6A45BF0A5236}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7765676" y="10645588"/>
+          <a:ext cx="2823883" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{052FDD2E-1D91-4C12-9195-C5F520D4E35D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2117912" y="8303559"/>
+          <a:ext cx="11295529" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線矢印コネクタ 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2DBCDB6-BC19-4D3E-ADBD-F139AC3EDEF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4941794" y="12987618"/>
+          <a:ext cx="5647765" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A652AD80-6966-4AED-BFA6-6E9EC1F908BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4941794" y="14265088"/>
+          <a:ext cx="5647765" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61FB11CA-EF93-449A-9549-DE12DBE2D6E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1176618" y="8942294"/>
+          <a:ext cx="9883588" cy="2767853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930597D1-AF7D-4269-B135-18620AF3A2A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4941794" y="12561794"/>
+          <a:ext cx="5647765" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線矢印コネクタ 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23AD9EE5-AAFF-4EDB-AE3A-352693DF93BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7765676" y="10219765"/>
+          <a:ext cx="2823884" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA37B95-0CEC-437B-8A67-96112D0A6374}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7765676" y="10645588"/>
+          <a:ext cx="2823883" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95A224A6-C1F3-43FD-9800-7EFB89B93A56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4941794" y="14690912"/>
+          <a:ext cx="5647765" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -9145,9 +11291,7 @@
   </sheetPr>
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
@@ -9222,13 +11366,535 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFD7FAB-0395-4078-A974-AAD2BF59947E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="F1:AW69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BA39" sqref="BA39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="9" width="3.125" style="27"/>
+    <col min="10" max="10" width="3.125" style="28"/>
+    <col min="11" max="21" width="3.125" style="27"/>
+    <col min="22" max="22" width="3.125" style="28"/>
+    <col min="23" max="33" width="3.125" style="27"/>
+    <col min="34" max="34" width="3.125" style="28"/>
+    <col min="35" max="45" width="3.125" style="27"/>
+    <col min="46" max="46" width="3.125" style="28"/>
+    <col min="47" max="63" width="3.125" style="27"/>
+    <col min="64" max="64" width="2.625" style="27" customWidth="1"/>
+    <col min="65" max="16384" width="3.125" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="7:49" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="7:49" s="30" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G2" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="34"/>
+      <c r="S2" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="34"/>
+      <c r="AE2" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="34"/>
+      <c r="AQ2" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="37"/>
+    </row>
+    <row r="7" spans="7:49" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L7" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="7:49" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AN10" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="7:49" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L15" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="7:49" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AW16" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AN17" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F21" s="29"/>
+    </row>
+    <row r="22" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F22" s="29"/>
+      <c r="AN22" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F23" s="29"/>
+    </row>
+    <row r="24" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F24" s="29"/>
+      <c r="L24" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F25" s="29"/>
+    </row>
+    <row r="26" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F26" s="29"/>
+    </row>
+    <row r="27" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F27" s="29"/>
+    </row>
+    <row r="28" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F28" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F29" s="29"/>
+      <c r="AN29" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F30" s="29"/>
+    </row>
+    <row r="31" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L31" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AN33" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X35" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AN37" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L39" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F42" s="29"/>
+    </row>
+    <row r="43" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F43" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F44" s="29"/>
+      <c r="AN44" s="29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F45" s="29"/>
+    </row>
+    <row r="46" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L46" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AN48" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ50" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AN52" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L54" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F57" s="29"/>
+    </row>
+    <row r="58" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F58" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F59" s="29"/>
+      <c r="AN59" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F60" s="29"/>
+    </row>
+    <row r="61" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X61" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AN63" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="24:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ65" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="24:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AN67" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="24:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X69" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="S2:X2"/>
+    <mergeCell ref="AE2:AJ2"/>
+    <mergeCell ref="AQ2:AV2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="22" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B585C93-1227-43C1-B164-778A1C2A6AA8}">
+  <dimension ref="B2:V33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S12" sqref="S12:V12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="3.125" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+    </row>
+    <row r="4" spans="2:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+    </row>
+    <row r="5" spans="2:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+    </row>
+    <row r="6" spans="2:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+    </row>
+    <row r="9" spans="2:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+    </row>
+    <row r="12" spans="2:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+    </row>
+    <row r="16" spans="2:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="41"/>
+    </row>
+    <row r="17" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="41"/>
+    </row>
+    <row r="18" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="41"/>
+    </row>
+    <row r="19" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="41"/>
+    </row>
+    <row r="20" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="41"/>
+    </row>
+    <row r="21" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="41"/>
+    </row>
+    <row r="22" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="41"/>
+    </row>
+    <row r="23" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="41"/>
+    </row>
+    <row r="24" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="41"/>
+    </row>
+    <row r="25" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="41"/>
+    </row>
+    <row r="26" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="41"/>
+    </row>
+    <row r="27" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="41"/>
+    </row>
+    <row r="28" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="41"/>
+    </row>
+    <row r="29" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="41"/>
+    </row>
+    <row r="30" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C30" s="41"/>
+    </row>
+    <row r="31" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C31" s="41"/>
+    </row>
+    <row r="32" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C32" s="41"/>
+    </row>
+    <row r="33" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C33" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="C11:N11"/>
+    <mergeCell ref="O11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E0F025-CFB5-4706-93E7-E4C001BC82B3}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAD266D-8168-4D61-AC78-498434140B92}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -9338,29 +12004,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E0F025-CFB5-4706-93E7-E4C001BC82B3}">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3CEB50-F7E5-4CCB-B3DD-1354929FB62A}">
   <dimension ref="B2:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -9442,7 +12090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FC36A7-885D-429A-B57D-B679ABF705BC}">
   <dimension ref="B1:Z41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -9483,16 +12131,16 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -9512,14 +12160,14 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -10544,7 +13192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13A0962-FD79-412F-A208-64D2E17FB33B}">
   <dimension ref="B1:Z39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -10585,16 +13233,16 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -10614,14 +13262,14 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -11592,7 +14240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E905497D-6AD1-4351-92EB-7EDA53BC2D16}">
   <dimension ref="B1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -11633,16 +14281,16 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -11662,14 +14310,14 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -12640,7 +15288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B400DBED-1939-4F4C-B9C6-B730AF5533D7}">
   <dimension ref="B1:Z38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -12681,16 +15329,16 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -12710,14 +15358,14 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -13661,7 +16309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A0C499-1E1F-4CA5-92BF-DBB02E27C5FE}">
   <dimension ref="B1:Z38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -13702,16 +16350,16 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -13731,14 +16379,14 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -14685,9 +17333,7 @@
   </sheetPr>
   <dimension ref="D1:AF43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AY9" sqref="AY9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>

--- a/nodejs/app4/doc/設計.xlsx
+++ b/nodejs/app4/doc/設計.xlsx
@@ -8,9 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sikak\Desktop\sikakou\project\web\nodejs\app4\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDCDBC6-8FCC-4BCD-8B1D-5344F7FC1C32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D57F4E-57BF-4147-9699-0AD6F15C30C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4560" windowWidth="20730" windowHeight="11310" firstSheet="5" activeTab="9" xr2:uid="{A08DDA38-1BB8-4924-BFC3-03E8153A772F}"/>
+    <workbookView xWindow="5895" yWindow="2730" windowWidth="21600" windowHeight="11505" firstSheet="8" activeTab="10" xr2:uid="{A08DDA38-1BB8-4924-BFC3-03E8153A772F}"/>
+    <workbookView xWindow="-28725" yWindow="975" windowWidth="14325" windowHeight="11505" firstSheet="8" activeTab="13" xr2:uid="{AEE57B19-C366-4685-B49B-59E45DC80CBB}"/>
+    <workbookView xWindow="9525" yWindow="2430" windowWidth="21600" windowHeight="11505" firstSheet="8" activeTab="11" xr2:uid="{34053D10-8985-4A77-88B9-E3691EF7D670}"/>
+    <workbookView xWindow="-21855" yWindow="1320" windowWidth="21600" windowHeight="11505" firstSheet="8" activeTab="9" xr2:uid="{F4FDCACF-ECDB-475E-8CE5-3593C7B6FAE9}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様" sheetId="11" r:id="rId1"/>
@@ -23,9 +26,13 @@
     <sheet name="対戦結果画面" sheetId="8" r:id="rId8"/>
     <sheet name="シーケンス" sheetId="10" r:id="rId9"/>
     <sheet name="P2P接続" sheetId="12" r:id="rId10"/>
-    <sheet name="情報" sheetId="13" r:id="rId11"/>
-    <sheet name="ユースケース" sheetId="5" r:id="rId12"/>
-    <sheet name="DB" sheetId="9" r:id="rId13"/>
+    <sheet name="クライアント" sheetId="15" r:id="rId11"/>
+    <sheet name="サーバー" sheetId="16" r:id="rId12"/>
+    <sheet name="定義" sheetId="17" r:id="rId13"/>
+    <sheet name="メッセージ" sheetId="14" r:id="rId14"/>
+    <sheet name="情報" sheetId="13" r:id="rId15"/>
+    <sheet name="ユースケース" sheetId="5" r:id="rId16"/>
+    <sheet name="DB" sheetId="9" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="216">
   <si>
     <t>論破.net</t>
     <rPh sb="0" eb="2">
@@ -703,30 +710,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ROOM_TBL登録</t>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ENTER要求(ROOM-ID,&lt;POSITIVE/NEGATIVE/WACTHER&gt;</t>
-    <rPh sb="5" eb="7">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ENTER応答（結果）</t>
-    <rPh sb="5" eb="7">
-      <t>オウトウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MEDIA要求</t>
     <rPh sb="5" eb="7">
       <t>ヨウキュウ</t>
@@ -883,6 +866,791 @@
     <rPh sb="2" eb="4">
       <t>オウトウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇メッセージフォーマット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>room_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルームID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>positive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>negative</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肯定のソケットID</t>
+    <rPh sb="0" eb="2">
+      <t>コウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>否定のソケットID</t>
+    <rPh sb="0" eb="2">
+      <t>ヒテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>watchers[n]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視聴のソケットID。複数設定可</t>
+    <rPh sb="0" eb="2">
+      <t>シチョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>socket_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルームに参加してる種別</t>
+    <rPh sb="4" eb="6">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>０：肯定／１：否定／２：視聴</t>
+    <rPh sb="2" eb="4">
+      <t>コウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇クライアント情報</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇ENTER要求</t>
+    <rPh sb="6" eb="8">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇ENTER応答</t>
+    <rPh sb="6" eb="8">
+      <t>オウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇メッセージ受信</t>
+    <rPh sb="6" eb="8">
+      <t>ジュシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇ソケット接続時</t>
+    <rPh sb="5" eb="7">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇メッセージ受信時</t>
+    <rPh sb="6" eb="8">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇ユースケース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇XX要求</t>
+    <rPh sb="3" eb="5">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇XX応答</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇RTCConnectionイベント発生時</t>
+    <rPh sb="18" eb="20">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇画面表示完了イベント発生時</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信元</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sender</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>destination</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>msgid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sender</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>destination</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可変</t>
+    <rPh sb="0" eb="2">
+      <t>カヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>msgid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信先</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可変</t>
+    <rPh sb="0" eb="2">
+      <t>カヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダー部</t>
+    <rPh sb="4" eb="5">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ部</t>
+    <rPh sb="3" eb="4">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ毎に可変</t>
+    <rPh sb="5" eb="6">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>join_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアントのソケットID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参加希望のルームID</t>
+    <rPh sb="0" eb="2">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアントの参加種別</t>
+    <rPh sb="7" eb="9">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアントの名前</t>
+    <rPh sb="7" eb="9">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>０：肯定／１：否定／２：視聴</t>
+    <rPh sb="2" eb="4">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇ENTER要求送信</t>
+    <rPh sb="6" eb="8">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>socket.id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>socket</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソケットオブジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>'admin'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇メッセージID一覧</t>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージID定義</t>
+    <rPh sb="7" eb="9">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENTER要求</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルーム参加可能か確認する</t>
+    <rPh sb="3" eb="5">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x0002</t>
+  </si>
+  <si>
+    <t>MSGID_ENTER_REQ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSGID_ENTER_RES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENTER応答</t>
+    <rPh sb="5" eb="7">
+      <t>オウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルームへの参加可否をお知らせする</t>
+    <rPh sb="5" eb="7">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カヒ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>room_info_tbl[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルーム情報TBL</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_info_tbl[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報TBL</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型</t>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇クラス定義</t>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇内部管理情報</t>
+    <rPh sb="1" eb="3">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>socket.io</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定義名</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER_TYPE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POSITIVE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NEGATIVE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WATCHER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー種別</t>
+    <rPh sb="4" eb="6">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肯定</t>
+    <rPh sb="0" eb="2">
+      <t>コウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>否定</t>
+    <rPh sb="0" eb="2">
+      <t>ヒテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視聴</t>
+    <rPh sb="0" eb="2">
+      <t>シチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇列挙定数定義</t>
+    <rPh sb="1" eb="3">
+      <t>レッキョ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照：USER_TYPE</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>roomクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>socket.on('message', fucntion( message ){});</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージID（message.header.msgid）毎に各種処理を行う</t>
+    <rPh sb="29" eb="30">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアントが参加しているルームのルームID</t>
+    <rPh sb="7" eb="9">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENTER_RESULT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENTER_OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENTER_NG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルーム参加要求結果</t>
+    <rPh sb="3" eb="5">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照：ENTER_RESULT</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENTER要求</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENTER応答</t>
+    <rPh sb="5" eb="7">
+      <t>オウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇メッセージ仕様</t>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>room</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルームID情報</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MEDIA応答</t>
+    <rPh sb="5" eb="7">
+      <t>オウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x0003</t>
+  </si>
+  <si>
+    <t>0x0004</t>
+  </si>
+  <si>
+    <t>RTC接続</t>
+    <rPh sb="3" eb="5">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RTC接続完了</t>
+    <rPh sb="3" eb="5">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSGID_RTC_CONNECT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>func_enter_req()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>func_media_res()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RTC_OFFER_REQ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>func_rtc_connect_comp()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>func_rtc_connect()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSGID_RTC_CONNECT_COMP</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1060,7 +1828,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1209,6 +1977,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1218,7 +2094,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1312,6 +2188,36 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1333,26 +2239,62 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11292,6 +12234,9 @@
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
@@ -11370,11 +12315,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="F1:AW69"/>
+  <dimension ref="F1:AV69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BA39" sqref="BA39"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AS10" sqref="AS10"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="3">
+      <selection activeCell="AN22" sqref="AN22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11392,64 +12342,59 @@
     <col min="65" max="16384" width="3.125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:49" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="7:49" s="30" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="32" t="s">
+    <row r="1" spans="7:48" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="7:48" s="30" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G2" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="34"/>
-      <c r="S2" s="32" t="s">
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
+      <c r="S2" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="34"/>
-      <c r="AE2" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="34"/>
-      <c r="AQ2" s="35" t="s">
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="44"/>
+      <c r="AE2" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="44"/>
+      <c r="AQ2" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="36"/>
-      <c r="AU2" s="36"/>
-      <c r="AV2" s="37"/>
-    </row>
-    <row r="7" spans="7:49" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46"/>
+      <c r="AV2" s="47"/>
+    </row>
+    <row r="7" spans="7:48" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="L7" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="7:49" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="7:48" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AN10" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="7:49" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="7:48" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="L15" s="29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="7:49" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AW16" s="27" t="s">
-        <v>70</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AN17" s="29" t="s">
-        <v>72</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -11458,7 +12403,7 @@
     <row r="22" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F22" s="29"/>
       <c r="AN22" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -11467,7 +12412,7 @@
     <row r="24" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F24" s="29"/>
       <c r="L24" s="29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -11487,7 +12432,7 @@
     <row r="29" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F29" s="29"/>
       <c r="AN29" s="29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -11495,27 +12440,27 @@
     </row>
     <row r="31" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="L31" s="29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AN33" s="29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X35" s="29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AN37" s="29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="L39" s="29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -11523,13 +12468,13 @@
     </row>
     <row r="43" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F43" s="29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F44" s="29"/>
       <c r="AN44" s="29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -11557,7 +12502,7 @@
     </row>
     <row r="54" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="L54" s="29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -11565,13 +12510,13 @@
     </row>
     <row r="58" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F58" s="29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F59" s="29"/>
       <c r="AN59" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="6:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -11599,7 +12544,7 @@
     </row>
     <row r="69" spans="24:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X69" s="29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -11617,227 +12562,2607 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56544731-D14C-4243-9F26-A3AC87C2C895}">
+  <dimension ref="B2:T35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="3.125" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="40"/>
+    </row>
+    <row r="4" spans="2:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="54"/>
+    </row>
+    <row r="5" spans="2:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="54"/>
+    </row>
+    <row r="6" spans="2:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="54"/>
+    </row>
+    <row r="7" spans="2:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="59"/>
+    </row>
+    <row r="8" spans="2:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="I8" s="35"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="36"/>
+    </row>
+    <row r="9" spans="2:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+    </row>
+    <row r="10" spans="2:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D14" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E15" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="64"/>
+    </row>
+    <row r="16" spans="2:20" ht="17.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="E16" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="56"/>
+    </row>
+    <row r="17" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E17" s="55"/>
+      <c r="F17" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="54"/>
+    </row>
+    <row r="18" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E18" s="55"/>
+      <c r="F18" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="54"/>
+    </row>
+    <row r="19" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E19" s="55"/>
+      <c r="F19" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="54"/>
+    </row>
+    <row r="20" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E20" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="54"/>
+    </row>
+    <row r="21" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E21" s="55"/>
+      <c r="F21" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="36"/>
+    </row>
+    <row r="22" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E22" s="55"/>
+      <c r="F22" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="54"/>
+    </row>
+    <row r="23" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E23" s="55"/>
+      <c r="F23" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="36"/>
+    </row>
+    <row r="24" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E24" s="57"/>
+      <c r="F24" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="36"/>
+    </row>
+    <row r="27" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D31" s="31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D33" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C35" s="31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDD7819-1FEB-43C6-8740-BCEA7613614A}">
+  <dimension ref="B2:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="2">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+    <sheetView workbookViewId="3"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="3.125" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="40"/>
+    </row>
+    <row r="4" spans="2:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="36"/>
+    </row>
+    <row r="5" spans="2:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="36"/>
+    </row>
+    <row r="6" spans="2:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="36"/>
+    </row>
+    <row r="8" spans="2:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D14" s="31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="55"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="55" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="57"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="59"/>
+    </row>
+    <row r="24" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="59"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF805B9F-C262-4741-BF59-D66FE25FE6DC}">
+  <dimension ref="B2:U28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+    <sheetView workbookViewId="3"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="3.125" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="40"/>
+    </row>
+    <row r="4" spans="2:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="36"/>
+    </row>
+    <row r="5" spans="2:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="55"/>
+      <c r="D5" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="35">
+        <v>0</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="36"/>
+    </row>
+    <row r="6" spans="2:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="57"/>
+      <c r="D6" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="35">
+        <v>1</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="36"/>
+    </row>
+    <row r="8" spans="2:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="40"/>
+    </row>
+    <row r="9" spans="2:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="36"/>
+    </row>
+    <row r="10" spans="2:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="55"/>
+      <c r="D10" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="35">
+        <v>0</v>
+      </c>
+      <c r="I10" s="35"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="36"/>
+    </row>
+    <row r="11" spans="2:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="55"/>
+      <c r="D11" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="35">
+        <v>1</v>
+      </c>
+      <c r="I11" s="35"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="36"/>
+    </row>
+    <row r="12" spans="2:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="57"/>
+      <c r="D12" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="35">
+        <v>2</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="36"/>
+    </row>
+    <row r="14" spans="2:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" s="39"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="40"/>
+    </row>
+    <row r="16" spans="2:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="56"/>
+    </row>
+    <row r="17" spans="3:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="55"/>
+      <c r="D17" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" s="35"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="36"/>
+    </row>
+    <row r="18" spans="3:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="55"/>
+      <c r="D18" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" s="35"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="36"/>
+    </row>
+    <row r="19" spans="3:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="55"/>
+      <c r="D19" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="54"/>
+    </row>
+    <row r="20" spans="3:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="57"/>
+      <c r="D20" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" s="35"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="36"/>
+    </row>
+    <row r="22" spans="3:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="40"/>
+    </row>
+    <row r="23" spans="3:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="56"/>
+    </row>
+    <row r="24" spans="3:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="55"/>
+      <c r="D24" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="J24" s="35"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="36"/>
+    </row>
+    <row r="25" spans="3:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="55"/>
+      <c r="D25" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" s="35"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="36"/>
+    </row>
+    <row r="26" spans="3:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="55"/>
+      <c r="D26" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="J26" s="37"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="54"/>
+    </row>
+    <row r="27" spans="3:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="55"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="59"/>
+    </row>
+    <row r="28" spans="3:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="57"/>
+      <c r="D28" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="J28" s="35"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEABEDB6-D614-4F35-B3B0-47FC559BB3B7}">
+  <dimension ref="B2:AI52"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="1">
+      <selection activeCell="R5" sqref="R5"/>
+    </sheetView>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="3.125" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="2:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="66"/>
+    </row>
+    <row r="4" spans="2:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="N4" s="35"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="36"/>
+    </row>
+    <row r="5" spans="2:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="N5" s="35"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="36"/>
+    </row>
+    <row r="6" spans="2:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="36"/>
+    </row>
+    <row r="7" spans="2:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="36"/>
+    </row>
+    <row r="10" spans="2:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="40"/>
+      <c r="Z11" s="37"/>
+    </row>
+    <row r="12" spans="2:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="36"/>
+    </row>
+    <row r="14" spans="2:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="40"/>
+    </row>
+    <row r="15" spans="2:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="56"/>
+    </row>
+    <row r="16" spans="2:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="55"/>
+      <c r="D16" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="54"/>
+    </row>
+    <row r="17" spans="2:31" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="55"/>
+      <c r="D17" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="54"/>
+    </row>
+    <row r="18" spans="2:31" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="57"/>
+      <c r="D18" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="54"/>
+    </row>
+    <row r="19" spans="2:31" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="54"/>
+    </row>
+    <row r="20" spans="2:31" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="57"/>
+      <c r="D20" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="36"/>
+    </row>
+    <row r="22" spans="2:31" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="2:31" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="2:31" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D25" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="40"/>
+    </row>
+    <row r="26" spans="2:31" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D26" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC26" s="58"/>
+      <c r="AD26" s="58"/>
+      <c r="AE26" s="59"/>
+    </row>
+    <row r="28" spans="2:31" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D28" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="64"/>
+    </row>
+    <row r="29" spans="2:31" ht="17.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="D29" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="56"/>
+    </row>
+    <row r="30" spans="2:31" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D30" s="55"/>
+      <c r="E30" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="54"/>
+    </row>
+    <row r="31" spans="2:31" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D31" s="55"/>
+      <c r="E31" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="54"/>
+    </row>
+    <row r="32" spans="2:31" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D32" s="55"/>
+      <c r="E32" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="54"/>
+    </row>
+    <row r="33" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D33" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="54"/>
+    </row>
+    <row r="34" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D34" s="55"/>
+      <c r="E34" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="36"/>
+    </row>
+    <row r="35" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D35" s="55"/>
+      <c r="E35" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="54"/>
+    </row>
+    <row r="36" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D36" s="55"/>
+      <c r="E36" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="54"/>
+    </row>
+    <row r="37" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D37" s="55"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="58"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="58"/>
+      <c r="R37" s="59"/>
+    </row>
+    <row r="38" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D38" s="57"/>
+      <c r="E38" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="58"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="59"/>
+    </row>
+    <row r="41" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C41" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D42" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="40"/>
+    </row>
+    <row r="43" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D43" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q43" s="58"/>
+      <c r="R43" s="58"/>
+      <c r="S43" s="59"/>
+    </row>
+    <row r="45" spans="3:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D45" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="63"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="63"/>
+      <c r="R45" s="64"/>
+    </row>
+    <row r="46" spans="3:19" ht="17.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="D46" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="56"/>
+    </row>
+    <row r="47" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D47" s="55"/>
+      <c r="E47" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="53"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="54"/>
+    </row>
+    <row r="48" spans="3:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D48" s="55"/>
+      <c r="E48" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="53"/>
+      <c r="R48" s="54"/>
+    </row>
+    <row r="49" spans="4:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D49" s="55"/>
+      <c r="E49" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="53"/>
+      <c r="P49" s="53"/>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="54"/>
+    </row>
+    <row r="50" spans="4:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D50" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="53"/>
+      <c r="N50" s="53"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="53"/>
+      <c r="Q50" s="53"/>
+      <c r="R50" s="54"/>
+    </row>
+    <row r="51" spans="4:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D51" s="55"/>
+      <c r="E51" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="53"/>
+      <c r="O51" s="53"/>
+      <c r="P51" s="53"/>
+      <c r="Q51" s="53"/>
+      <c r="R51" s="54"/>
+    </row>
+    <row r="52" spans="4:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="K52" s="58"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="58"/>
+      <c r="N52" s="58"/>
+      <c r="O52" s="58"/>
+      <c r="P52" s="58"/>
+      <c r="Q52" s="58"/>
+      <c r="R52" s="59"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B585C93-1227-43C1-B164-778A1C2A6AA8}">
   <dimension ref="B2:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S12" sqref="S12:V12"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="3.125" style="38"/>
+    <col min="1" max="16384" width="3.125" style="31"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="32" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42" t="s">
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42" t="s">
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
     </row>
     <row r="4" spans="2:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40" t="s">
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
     </row>
     <row r="5" spans="2:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
     </row>
     <row r="6" spans="2:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
     </row>
     <row r="9" spans="2:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="11" spans="2:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="44" t="s">
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+    </row>
+    <row r="12" spans="2:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44" t="s">
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-    </row>
-    <row r="12" spans="2:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
     </row>
     <row r="16" spans="2:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="41"/>
+      <c r="C16" s="33"/>
     </row>
     <row r="17" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="41"/>
+      <c r="C17" s="33"/>
     </row>
     <row r="18" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="41"/>
+      <c r="C18" s="33"/>
     </row>
     <row r="19" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="41"/>
+      <c r="C19" s="33"/>
     </row>
     <row r="20" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="41"/>
+      <c r="C20" s="33"/>
     </row>
     <row r="21" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="41"/>
+      <c r="C21" s="33"/>
     </row>
     <row r="22" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="41"/>
+      <c r="C22" s="33"/>
     </row>
     <row r="23" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="41"/>
+      <c r="C23" s="33"/>
     </row>
     <row r="24" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="41"/>
+      <c r="C24" s="33"/>
     </row>
     <row r="25" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="41"/>
+      <c r="C25" s="33"/>
     </row>
     <row r="26" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="41"/>
+      <c r="C26" s="33"/>
     </row>
     <row r="27" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="41"/>
+      <c r="C27" s="33"/>
     </row>
     <row r="28" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="41"/>
+      <c r="C28" s="33"/>
     </row>
     <row r="29" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="41"/>
+      <c r="C29" s="33"/>
     </row>
     <row r="30" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="41"/>
+      <c r="C30" s="33"/>
     </row>
     <row r="31" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="41"/>
+      <c r="C31" s="33"/>
     </row>
     <row r="32" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="41"/>
+      <c r="C32" s="33"/>
     </row>
     <row r="33" spans="3:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="41"/>
+      <c r="C33" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -11871,7 +15196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E0F025-CFB5-4706-93E7-E4C001BC82B3}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -11879,6 +15204,9 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -11887,7 +15215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAD266D-8168-4D61-AC78-498434140B92}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -11895,6 +15223,9 @@
   <dimension ref="B1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -12009,6 +15340,9 @@
   <dimension ref="B2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -12077,6 +15411,9 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -12091,6 +15428,9 @@
   <dimension ref="B1:Z41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -12131,16 +15471,16 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -12160,14 +15500,14 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -13193,6 +16533,9 @@
   <dimension ref="B1:Z39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -13233,16 +16576,16 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -13262,14 +16605,14 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -14241,6 +17584,9 @@
   <dimension ref="B1:Z39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -14281,16 +17627,16 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -14310,14 +17656,14 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -15289,6 +18635,9 @@
   <dimension ref="B1:Z38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -15329,16 +18678,16 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -15358,14 +18707,14 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -16310,6 +19659,9 @@
   <dimension ref="B1:Z38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -16350,16 +19702,16 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -16379,14 +19731,14 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -17333,7 +20685,12 @@
   </sheetPr>
   <dimension ref="D1:AF43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF11" sqref="AF11"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
